--- a/Data/t17.2.xlsx
+++ b/Data/t17.2.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Total (4)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Pública (4)</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">

--- a/Data/t17.2.xlsx
+++ b/Data/t17.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +543,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
@@ -573,7 +573,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
@@ -603,7 +603,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7">
@@ -633,7 +633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8">
@@ -663,7 +663,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -693,7 +693,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="11">
@@ -753,7 +753,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
@@ -783,7 +783,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -873,7 +873,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
@@ -898,21 +898,21 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17">
@@ -928,21 +928,21 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="18">
@@ -958,21 +958,21 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="19">
@@ -1018,12 +1018,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="21">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="23">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1118,11 +1118,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="25">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="27">
@@ -1228,21 +1228,21 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="28">
@@ -1258,21 +1258,21 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="29">
@@ -1288,21 +1288,21 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="30">
@@ -1318,21 +1318,21 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="31">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="33">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="34">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="36">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="38">
@@ -1558,21 +1558,21 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1588,21 +1588,21 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="40">
@@ -1618,21 +1618,21 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="41">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="43">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="44">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="45">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1778,11 +1778,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="47">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="48">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="49">
@@ -1888,21 +1888,21 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="50">
@@ -1918,21 +1918,21 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="51">
@@ -1948,21 +1948,21 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="52">
@@ -1978,21 +1978,21 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="53">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="55">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="56">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="58">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="60">
@@ -2218,21 +2218,21 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="61">
@@ -2248,21 +2248,21 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="62">
@@ -2278,21 +2278,21 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="63">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="65">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="66">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="67">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2438,11 +2438,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="68">
@@ -2458,12 +2458,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="69">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="70">
@@ -2518,12 +2518,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="71">
@@ -2548,21 +2548,21 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="72">
@@ -2578,21 +2578,21 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -2608,21 +2608,21 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="74">
@@ -2638,21 +2638,21 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="75">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="78">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="80">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="82">
@@ -2878,21 +2878,21 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="83">
@@ -2908,21 +2908,21 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -2938,21 +2938,21 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="85">
@@ -2998,12 +2998,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="87">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="88">
@@ -3058,12 +3058,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="89">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="90">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="91">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="92">
@@ -3178,12 +3178,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="93">
@@ -3208,21 +3208,21 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="94">
@@ -3238,21 +3238,21 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="95">
@@ -3268,21 +3268,21 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="96">
@@ -3298,21 +3298,21 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="97">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="99">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="100">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="102">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="104">
@@ -3538,21 +3538,21 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="105">
@@ -3568,21 +3568,21 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="106">
@@ -3598,21 +3598,21 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="107">
@@ -3658,12 +3658,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="109">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="110">
@@ -3718,12 +3718,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="111">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3758,11 +3758,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="112">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="113">
@@ -3808,12 +3808,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -3838,12 +3838,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="115">
@@ -3868,17 +3868,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -3898,21 +3898,21 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="117">
@@ -3928,21 +3928,21 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>6.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="118">
@@ -3958,21 +3958,21 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="119">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="121">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="122">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="124">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="126">
@@ -4198,21 +4198,21 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="127">
@@ -4228,21 +4228,21 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="128">
@@ -4258,21 +4258,21 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="129">
@@ -4318,12 +4318,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="131">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="132">
@@ -4378,12 +4378,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="133">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4418,11 +4418,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="134">
@@ -4438,12 +4438,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="135">
@@ -4468,12 +4468,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="136">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="137">
@@ -4528,21 +4528,21 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="138">
@@ -4558,21 +4558,21 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="139">
@@ -4588,21 +4588,21 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>6.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="140">
@@ -4618,21 +4618,21 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="141">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="143">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>6.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="144">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="146">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="148">
@@ -4858,21 +4858,21 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="149">
@@ -4888,21 +4888,21 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="150">
@@ -4918,21 +4918,21 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="151">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="153">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="154">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="155">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5078,11 +5078,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="156">
@@ -5098,12 +5098,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>4.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="157">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="158">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="159">
@@ -5188,21 +5188,21 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -5218,21 +5218,21 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="161">
@@ -5248,21 +5248,21 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>7.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="162">
@@ -5278,21 +5278,21 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="163">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>4.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="165">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="166">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5433,16 +5433,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="168">
@@ -5468,11 +5468,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="169">
@@ -5493,16 +5493,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="170">
@@ -5518,12 +5518,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="171">
@@ -5548,12 +5548,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>7.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="173">
@@ -5618,11 +5618,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="174">
@@ -5638,21 +5638,21 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="175">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5678,11 +5678,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="176">
@@ -5698,21 +5698,21 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="177">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5758,27 +5758,27 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5788,27 +5788,27 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5818,27 +5818,27 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5848,12 +5848,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5878,12 +5878,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5908,12 +5908,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5922,13 +5922,13 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5938,12 +5938,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5973,22 +5973,22 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6003,22 +6003,22 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6033,46 +6033,376 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Fundamental - Anos Iniciais</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Projeção</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Fundamental - Anos Iniciais</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Ensino Médio</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
         <is>
           <t>Estadual</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>IDEB</t>
-        </is>
-      </c>
-      <c r="F188" t="n">
-        <v>5.2</v>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Ensino Médio</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Ensino Médio</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Fundamental - Anos Finais</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Estadual</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Fundamental - Anos Finais</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Fundamental - Anos Finais</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Fundamental - Anos Finais</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Fundamental - Anos Iniciais</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Estadual</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Fundamental - Anos Iniciais</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Fundamental - Anos Iniciais</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Fundamental - Anos Iniciais</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>IDEB</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t17.2.xlsx
+++ b/Data/t17.2.xlsx
@@ -898,7 +898,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -928,7 +928,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -938,11 +938,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="18">
@@ -958,21 +958,21 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -993,7 +993,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="20">
@@ -1018,12 +1018,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="22">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="23">
@@ -1108,21 +1108,21 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="24">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="25">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="26">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="27">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1238,11 +1238,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="29">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1298,11 +1298,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="31">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="39">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1598,11 +1598,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="40">
@@ -1618,21 +1618,21 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="41">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="42">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="43">
@@ -1708,12 +1708,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="44">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="45">
@@ -1768,21 +1768,21 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="46">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="48">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="49">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1898,11 +1898,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="51">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1958,11 +1958,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="52">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="53">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="61">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="62">
@@ -2278,21 +2278,21 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="63">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="64">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="65">
@@ -2368,12 +2368,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="67">
@@ -2428,21 +2428,21 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="68">
@@ -2458,12 +2458,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="69">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="70">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="71">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2558,11 +2558,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="72">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="73">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2618,11 +2618,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="74">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="75">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2888,11 +2888,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="83">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2918,11 +2918,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="84">
@@ -2938,21 +2938,21 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="85">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="86">
@@ -2998,12 +2998,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="87">
@@ -3028,12 +3028,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="88">
@@ -3058,12 +3058,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="89">
@@ -3088,21 +3088,21 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="90">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="91">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="93">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3218,11 +3218,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="94">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3248,11 +3248,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="95">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3278,11 +3278,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="96">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3308,11 +3308,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="97">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3548,11 +3548,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="105">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3578,11 +3578,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="106">
@@ -3598,21 +3598,21 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="107">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="108">
@@ -3658,12 +3658,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="109">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="110">
@@ -3718,12 +3718,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="111">
@@ -3748,21 +3748,21 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="112">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="113">
@@ -3808,12 +3808,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="114">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="115">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3878,11 +3878,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="116">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="117">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3968,11 +3968,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="119">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4208,11 +4208,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="127">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4238,11 +4238,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="128">
@@ -4258,21 +4258,21 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="129">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="130">
@@ -4318,12 +4318,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="131">
@@ -4348,12 +4348,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="132">
@@ -4378,12 +4378,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="133">
@@ -4408,21 +4408,21 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="134">
@@ -4438,12 +4438,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>6.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="135">
@@ -4468,12 +4468,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="136">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="137">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4538,11 +4538,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="138">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4568,11 +4568,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="139">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4598,11 +4598,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="140">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4628,11 +4628,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="141">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4868,11 +4868,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="149">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4898,11 +4898,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="150">
@@ -4918,21 +4918,21 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="151">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="152">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -5008,12 +5008,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="154">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="155">
@@ -5068,21 +5068,21 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="156">
@@ -5098,12 +5098,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>7.1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="157">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="158">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="159">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5198,11 +5198,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="160">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5228,11 +5228,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="161">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5258,11 +5258,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="162">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5288,11 +5288,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="163">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5528,11 +5528,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="171">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5558,11 +5558,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="172">
@@ -5578,21 +5578,21 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Ensino Médio</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="173">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="174">
@@ -5638,12 +5638,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="175">
@@ -5668,12 +5668,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="176">
@@ -5698,12 +5698,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Pública</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="177">
@@ -5728,21 +5728,21 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Fundamental - Anos Iniciais</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Estadual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Projeção</t>
+          <t>IDEB</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="178">
@@ -5758,12 +5758,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>Estadual</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>7.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="179">
@@ -5788,12 +5788,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Pública</t>
+          <t>Privada</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Finais</t>
+          <t>Ensino Médio</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5858,11 +5858,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="182">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5888,11 +5888,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="183">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Fundamental - Anos Iniciais</t>
+          <t>Fundamental - Anos Finais</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5948,11 +5948,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>IDEB</t>
+          <t>Projeção</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="185">
